--- a/WinFund/docs/ToDos.xlsx
+++ b/WinFund/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,8 +30,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周一日盘收市后，2个账户各50%资金。
-然后观察夜盘手续费对比情况</t>
+    <t>更新日夜盘手数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新主力合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日盘未平仓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -427,10 +438,32 @@
     </row>
     <row r="2" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>43074</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/WinFund/docs/ToDos.xlsx
+++ b/WinFund/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,19 +30,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新日夜盘手数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新主力合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日盘未平仓</t>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移郑州程序到新服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,11 +110,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C23" totalsRowShown="0">
-  <autoFilter ref="A1:C23"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="时间"/>
     <tableColumn id="2" name="标题"/>
+    <tableColumn id="4" name="状态"/>
     <tableColumn id="3" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -412,20 +409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="2" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,38 +430,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>43069</v>
+        <v>43117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>43069</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>43074</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WinFund/docs/ToDos.xlsx
+++ b/WinFund/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,14 +31,6 @@
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迁移郑州程序到新服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,15 +77,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -110,8 +99,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D22" totalsRowShown="0">
-  <autoFilter ref="A1:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21"/>
   <tableColumns count="4">
     <tableColumn id="1" name="时间"/>
     <tableColumn id="2" name="标题"/>
@@ -409,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -436,19 +425,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>43117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
